--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2988.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2988.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.193790796637135</v>
+        <v>1.83711850643158</v>
       </c>
       <c r="B1">
-        <v>2.516650982539011</v>
+        <v>2.274204969406128</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.286669254302979</v>
       </c>
       <c r="D1">
-        <v>2.25004071848832</v>
+        <v>2.639342546463013</v>
       </c>
       <c r="E1">
-        <v>1.186162755559374</v>
+        <v>3.424020767211914</v>
       </c>
     </row>
   </sheetData>
